--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1223.690996391999</v>
+        <v>109.43559351829</v>
       </c>
       <c r="R2">
-        <v>11013.21896752799</v>
+        <v>984.92034166461</v>
       </c>
       <c r="S2">
-        <v>0.004367396780809914</v>
+        <v>0.0004444097214207762</v>
       </c>
       <c r="T2">
-        <v>0.004367396780809914</v>
+        <v>0.0004444097214207762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1062.010689876839</v>
+        <v>144.202106778064</v>
       </c>
       <c r="R3">
-        <v>9558.096208891551</v>
+        <v>1297.818961002576</v>
       </c>
       <c r="S3">
-        <v>0.003790354004262043</v>
+        <v>0.0005855939191376335</v>
       </c>
       <c r="T3">
-        <v>0.003790354004262042</v>
+        <v>0.0005855939191376334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1484.87805754517</v>
+        <v>201.619951896496</v>
       </c>
       <c r="R4">
-        <v>13363.90251790653</v>
+        <v>1814.579567068464</v>
       </c>
       <c r="S4">
-        <v>0.005299582711271842</v>
+        <v>0.0008187634733320736</v>
       </c>
       <c r="T4">
-        <v>0.005299582711271842</v>
+        <v>0.0008187634733320736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>86086.19513067725</v>
+        <v>56699.29109141303</v>
       </c>
       <c r="R5">
-        <v>774775.7561760953</v>
+        <v>510293.6198227173</v>
       </c>
       <c r="S5">
-        <v>0.3072446986979827</v>
+        <v>0.2302515602885551</v>
       </c>
       <c r="T5">
-        <v>0.3072446986979827</v>
+        <v>0.2302515602885551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>74712.04719914086</v>
@@ -818,10 +818,10 @@
         <v>672408.4247922676</v>
       </c>
       <c r="S6">
-        <v>0.266649959333949</v>
+        <v>0.3034000092209203</v>
       </c>
       <c r="T6">
-        <v>0.266649959333949</v>
+        <v>0.3034000092209203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>104460.6053194707</v>
@@ -880,10 +880,10 @@
         <v>940145.4478752365</v>
       </c>
       <c r="S7">
-        <v>0.3728236235608984</v>
+        <v>0.4242066682053759</v>
       </c>
       <c r="T7">
-        <v>0.3728236235608984</v>
+        <v>0.4242066682053759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>3621.277667337841</v>
+        <v>2385.096428893663</v>
       </c>
       <c r="R8">
-        <v>32591.49900604057</v>
+        <v>21465.86786004297</v>
       </c>
       <c r="S8">
-        <v>0.01292446906398888</v>
+        <v>0.009685697362706493</v>
       </c>
       <c r="T8">
-        <v>0.01292446906398888</v>
+        <v>0.009685697362706493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>3142.815960127461</v>
+        <v>3142.815960127462</v>
       </c>
       <c r="R9">
-        <v>28285.34364114715</v>
+        <v>28285.34364114716</v>
       </c>
       <c r="S9">
-        <v>0.01121682217766495</v>
+        <v>0.01276273943800181</v>
       </c>
       <c r="T9">
-        <v>0.01121682217766495</v>
+        <v>0.01276273943800181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4394.210437408326</v>
@@ -1066,10 +1066,10 @@
         <v>39547.89393667493</v>
       </c>
       <c r="S10">
-        <v>0.01568309366917225</v>
+        <v>0.01784455837054993</v>
       </c>
       <c r="T10">
-        <v>0.01568309366917225</v>
+        <v>0.01784455837054993</v>
       </c>
     </row>
   </sheetData>
